--- a/data/trans_orig/P1432-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P1432-Provincia-trans_orig.xlsx
@@ -746,7 +746,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>9197</v>
+        <v>8427</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.009267663281226511</v>
@@ -755,7 +755,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.03368838285320754</v>
+        <v>0.03086577115935985</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>5</v>
@@ -764,19 +764,19 @@
         <v>4930</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>1809</v>
+        <v>1072</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>10607</v>
+        <v>9952</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.01889967869922032</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.006937113695852839</v>
+        <v>0.004110836947434224</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.04066554382742928</v>
+        <v>0.03815281005069361</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>7</v>
@@ -785,19 +785,19 @@
         <v>7460</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>3085</v>
+        <v>2921</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>16420</v>
+        <v>14942</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.01397386498865569</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.005778662184151425</v>
+        <v>0.005471936624139968</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.03075717166504641</v>
+        <v>0.02798888020189482</v>
       </c>
     </row>
     <row r="5">
@@ -814,7 +814,7 @@
         <v>270480</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>263813</v>
+        <v>264583</v>
       </c>
       <c r="F5" s="5" t="n">
         <v>273010</v>
@@ -823,7 +823,7 @@
         <v>0.9907323367187735</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9663116171467924</v>
+        <v>0.9691342288406402</v>
       </c>
       <c r="I5" s="6" t="n">
         <v>1</v>
@@ -835,19 +835,19 @@
         <v>255908</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>250231</v>
+        <v>250886</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>259029</v>
+        <v>259766</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9811003213007797</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9593344561725711</v>
+        <v>0.9618471899493066</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9930628863041472</v>
+        <v>0.9958891630525658</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>509</v>
@@ -856,19 +856,19 @@
         <v>526388</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>517428</v>
+        <v>518906</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>530763</v>
+        <v>530927</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9860261350113443</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9692428283349536</v>
+        <v>0.9720111197981052</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9942213378158486</v>
+        <v>0.9945280633758601</v>
       </c>
     </row>
     <row r="6">
@@ -963,7 +963,7 @@
         <v>0</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>7112</v>
+        <v>7156</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.004131003376809153</v>
@@ -972,7 +972,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.01442297250165148</v>
+        <v>0.01451246584556149</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>8</v>
@@ -981,19 +981,19 @@
         <v>8138</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>3818</v>
+        <v>3725</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>16168</v>
+        <v>15193</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.01614927348291853</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.007575683199700612</v>
+        <v>0.007391163009783848</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.03208196838377826</v>
+        <v>0.03014796014641296</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>10</v>
@@ -1002,19 +1002,19 @@
         <v>10175</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>5059</v>
+        <v>5016</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>18813</v>
+        <v>17919</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.01020567649629355</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.005074263311739867</v>
+        <v>0.005031414477217776</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.01886946157961267</v>
+        <v>0.01797228817481492</v>
       </c>
     </row>
     <row r="8">
@@ -1031,7 +1031,7 @@
         <v>491038</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>485963</v>
+        <v>485919</v>
       </c>
       <c r="F8" s="5" t="n">
         <v>493075</v>
@@ -1040,7 +1040,7 @@
         <v>0.9958689966231908</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9855770274983485</v>
+        <v>0.9854875341544386</v>
       </c>
       <c r="I8" s="6" t="n">
         <v>1</v>
@@ -1052,19 +1052,19 @@
         <v>495811</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>487781</v>
+        <v>488756</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>500131</v>
+        <v>500224</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9838507265170815</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9679180316162217</v>
+        <v>0.969852039853587</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9924243168002994</v>
+        <v>0.9926088369902161</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>954</v>
@@ -1073,19 +1073,19 @@
         <v>986849</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>978211</v>
+        <v>979105</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>991965</v>
+        <v>992008</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9897943235037064</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9811305384203856</v>
+        <v>0.9820277118251846</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9949257366882601</v>
+        <v>0.9949685855227821</v>
       </c>
     </row>
     <row r="9">
@@ -1177,19 +1177,19 @@
         <v>3845</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>990</v>
+        <v>944</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>9566</v>
+        <v>8772</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.01205949304988603</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.003103637871904138</v>
+        <v>0.0029621815697443</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.03000299438015708</v>
+        <v>0.02751073299657194</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>6</v>
@@ -1198,19 +1198,19 @@
         <v>5488</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>2062</v>
+        <v>2053</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>11782</v>
+        <v>12260</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.016362270403834</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.006148434373889162</v>
+        <v>0.006121818637592738</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.03512602943609415</v>
+        <v>0.03655316823038125</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>10</v>
@@ -1219,19 +1219,19 @@
         <v>9333</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>4079</v>
+        <v>4129</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>17072</v>
+        <v>16718</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.01426535580900674</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.006234461477315343</v>
+        <v>0.006311525260631172</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.02609371509047647</v>
+        <v>0.02555336314059063</v>
       </c>
     </row>
     <row r="11">
@@ -1248,19 +1248,19 @@
         <v>315001</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>309280</v>
+        <v>310074</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>317856</v>
+        <v>317902</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9879405069501139</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9699970056198427</v>
+        <v>0.972489267003428</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9968963621280958</v>
+        <v>0.9970378184302557</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>329</v>
@@ -1269,19 +1269,19 @@
         <v>329924</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>323630</v>
+        <v>323152</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>333350</v>
+        <v>333359</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.983637729596166</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9648739705639053</v>
+        <v>0.9634468317696187</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9938515656261109</v>
+        <v>0.9938781813624072</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>635</v>
@@ -1290,19 +1290,19 @@
         <v>644925</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>637186</v>
+        <v>637540</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>650179</v>
+        <v>650129</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9857346441909932</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9739062849095237</v>
+        <v>0.9744466368594095</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9937655385226847</v>
+        <v>0.9936884747393688</v>
       </c>
     </row>
     <row r="12">
@@ -1394,19 +1394,19 @@
         <v>2619</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>828</v>
+        <v>832</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>7755</v>
+        <v>7163</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.007300722405382285</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.002309666058833213</v>
+        <v>0.00232100395100733</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.02162032022567721</v>
+        <v>0.01997030367009177</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>2</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>6549</v>
+        <v>8075</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.005614600581652025</v>
@@ -1427,7 +1427,7 @@
         <v>0</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.01763187258644747</v>
+        <v>0.0217378131756074</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>5</v>
@@ -1436,19 +1436,19 @@
         <v>4704</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>1695</v>
+        <v>1802</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>10327</v>
+        <v>10661</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.006442899118312464</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.002321198431993301</v>
+        <v>0.002468111645790231</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.0141436956924605</v>
+        <v>0.01460152404702713</v>
       </c>
     </row>
     <row r="14">
@@ -1465,19 +1465,19 @@
         <v>356052</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>350916</v>
+        <v>351508</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>357843</v>
+        <v>357839</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9926992775946177</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9783796797743224</v>
+        <v>0.980029696329907</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9976903339411668</v>
+        <v>0.9976789960489927</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>382</v>
@@ -1486,7 +1486,7 @@
         <v>369370</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>364907</v>
+        <v>363381</v>
       </c>
       <c r="M14" s="5" t="n">
         <v>371456</v>
@@ -1495,7 +1495,7 @@
         <v>0.994385399418348</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9823681274135526</v>
+        <v>0.9782621868243917</v>
       </c>
       <c r="P14" s="6" t="n">
         <v>1</v>
@@ -1507,19 +1507,19 @@
         <v>725423</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>719800</v>
+        <v>719466</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>728432</v>
+        <v>728325</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9935571008816876</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9858563043075395</v>
+        <v>0.9853984759529728</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9976788015680067</v>
+        <v>0.9975318883542098</v>
       </c>
     </row>
     <row r="15">
@@ -1627,7 +1627,7 @@
         <v>0</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>7331</v>
+        <v>7614</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.009906956514869109</v>
@@ -1636,7 +1636,7 @@
         <v>0</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.03530062773894091</v>
+        <v>0.03666199872867389</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>2</v>
@@ -1648,7 +1648,7 @@
         <v>0</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>6798</v>
+        <v>6476</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.005006028613017473</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.01654135468121401</v>
+        <v>0.01575671148158203</v>
       </c>
     </row>
     <row r="17">
@@ -1687,7 +1687,7 @@
         <v>205611</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>200337</v>
+        <v>200054</v>
       </c>
       <c r="M17" s="5" t="n">
         <v>207668</v>
@@ -1696,7 +1696,7 @@
         <v>0.9900930434851309</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9646993722610582</v>
+        <v>0.9633380012713276</v>
       </c>
       <c r="P17" s="6" t="n">
         <v>1</v>
@@ -1708,7 +1708,7 @@
         <v>408919</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>404178</v>
+        <v>404500</v>
       </c>
       <c r="T17" s="5" t="n">
         <v>410976</v>
@@ -1717,7 +1717,7 @@
         <v>0.9949939713869825</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9834586453187868</v>
+        <v>0.9842432885184178</v>
       </c>
       <c r="W17" s="6" t="n">
         <v>1</v>
@@ -1815,7 +1815,7 @@
         <v>0</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>5422</v>
+        <v>4936</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.003603223230986477</v>
@@ -1824,7 +1824,7 @@
         <v>0</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.02002026059814729</v>
+        <v>0.01822661423905261</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>2</v>
@@ -1836,7 +1836,7 @@
         <v>0</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>7670</v>
+        <v>8191</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.008410887579743306</v>
@@ -1845,7 +1845,7 @@
         <v>0</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.02757385034618593</v>
+        <v>0.02944940614109916</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>3</v>
@@ -1854,19 +1854,19 @@
         <v>3315</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>978</v>
+        <v>976</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>9276</v>
+        <v>8822</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.00603916603664975</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.001781275286583098</v>
+        <v>0.001777732901461767</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.01689675913503508</v>
+        <v>0.01607098596906571</v>
       </c>
     </row>
     <row r="20">
@@ -1883,7 +1883,7 @@
         <v>269835</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>265389</v>
+        <v>265875</v>
       </c>
       <c r="F20" s="5" t="n">
         <v>270811</v>
@@ -1892,7 +1892,7 @@
         <v>0.9963967767690135</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9799797394018532</v>
+        <v>0.9817733857609474</v>
       </c>
       <c r="I20" s="6" t="n">
         <v>1</v>
@@ -1904,7 +1904,7 @@
         <v>275805</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>270474</v>
+        <v>269953</v>
       </c>
       <c r="M20" s="5" t="n">
         <v>278144</v>
@@ -1913,7 +1913,7 @@
         <v>0.9915891124202567</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.972426149653813</v>
+        <v>0.9705505938589009</v>
       </c>
       <c r="P20" s="6" t="n">
         <v>1</v>
@@ -1925,19 +1925,19 @@
         <v>545640</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>539679</v>
+        <v>540133</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>547977</v>
+        <v>547979</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9939608339633502</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.983103240864965</v>
+        <v>0.9839290140309342</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9982187247134169</v>
+        <v>0.9982222670985382</v>
       </c>
     </row>
     <row r="21">
@@ -2029,19 +2029,19 @@
         <v>5368</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>1798</v>
+        <v>1861</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>11925</v>
+        <v>13053</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.008728097426396459</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.002923103273238176</v>
+        <v>0.003025682214100709</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.01938970834642699</v>
+        <v>0.02122419087838093</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>4</v>
@@ -2050,19 +2050,19 @@
         <v>3931</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>973</v>
+        <v>901</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>9571</v>
+        <v>9681</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.006159386787619694</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.001523862595121356</v>
+        <v>0.001411467485511861</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.01499619812940608</v>
+        <v>0.0151691565238241</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>9</v>
@@ -2071,19 +2071,19 @@
         <v>9299</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>4405</v>
+        <v>4449</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>17653</v>
+        <v>17695</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.007419974377598091</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.003514516006926062</v>
+        <v>0.003550175310855551</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.01408554938029255</v>
+        <v>0.01411966830646566</v>
       </c>
     </row>
     <row r="23">
@@ -2100,19 +2100,19 @@
         <v>609659</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>603102</v>
+        <v>601974</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>613229</v>
+        <v>613166</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9912719025736035</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9806102916535726</v>
+        <v>0.9787758091216191</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9970768967267618</v>
+        <v>0.9969743177858993</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>617</v>
@@ -2121,19 +2121,19 @@
         <v>634288</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>628648</v>
+        <v>628538</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>637246</v>
+        <v>637318</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.9938406132123803</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.9850038018705929</v>
+        <v>0.9848308434761751</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9984761374048787</v>
+        <v>0.9985885325144881</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>1210</v>
@@ -2142,19 +2142,19 @@
         <v>1243947</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>1235593</v>
+        <v>1235551</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>1248841</v>
+        <v>1248797</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.9925800256224019</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9859144506197073</v>
+        <v>0.9858803316935342</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9964854839930739</v>
+        <v>0.9964498246891442</v>
       </c>
     </row>
     <row r="24">
@@ -2246,19 +2246,19 @@
         <v>18549</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>11683</v>
+        <v>11173</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>28261</v>
+        <v>28282</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.02493817361074733</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.01570774360111251</v>
+        <v>0.01502166620274529</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.03799624427326944</v>
+        <v>0.03802435668851218</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>19</v>
@@ -2267,19 +2267,19 @@
         <v>21719</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>12925</v>
+        <v>13427</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>32873</v>
+        <v>33287</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.02771998639099484</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.01649659932157015</v>
+        <v>0.01713666463469312</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.0419554838130927</v>
+        <v>0.04248420800890652</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>39</v>
@@ -2288,19 +2288,19 @@
         <v>40268</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>29478</v>
+        <v>29681</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>53896</v>
+        <v>54164</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.02636524903213014</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.01930064764169268</v>
+        <v>0.01943346249277303</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.0352880304264457</v>
+        <v>0.03546385709144683</v>
       </c>
     </row>
     <row r="26">
@@ -2317,19 +2317,19 @@
         <v>725246</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>715534</v>
+        <v>715513</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>732112</v>
+        <v>732622</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.9750618263892527</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.9620037557267306</v>
+        <v>0.9619756433114874</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9842922563988875</v>
+        <v>0.9849783337972546</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>726</v>
@@ -2338,19 +2338,19 @@
         <v>761792</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>750638</v>
+        <v>750224</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>770586</v>
+        <v>770084</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.9722800136090052</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.9580445161869074</v>
+        <v>0.957515791991094</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.98350340067843</v>
+        <v>0.9828633353653069</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1442</v>
@@ -2359,19 +2359,19 @@
         <v>1487038</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1473410</v>
+        <v>1473142</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1497828</v>
+        <v>1497625</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.9736347509678699</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.9647119695735543</v>
+        <v>0.9645361429085533</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9806993523583073</v>
+        <v>0.980566537507227</v>
       </c>
     </row>
     <row r="27">
@@ -2463,19 +2463,19 @@
         <v>35923</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>25889</v>
+        <v>25488</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>49135</v>
+        <v>48735</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.01096382187600987</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.00790127440197994</v>
+        <v>0.007778858586261092</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.01499601045264456</v>
+        <v>0.01487375644877311</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>48</v>
@@ -2484,19 +2484,19 @@
         <v>50689</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>38374</v>
+        <v>37361</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>66313</v>
+        <v>67720</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.01500018835515685</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.01135581951712544</v>
+        <v>0.01105620803452549</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.01962394752414813</v>
+        <v>0.02004025318614542</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>85</v>
@@ -2505,19 +2505,19 @@
         <v>86612</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>67866</v>
+        <v>68483</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>104483</v>
+        <v>107007</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.01301313231358784</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.01019667225461175</v>
+        <v>0.0102892885069448</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.01569824790564721</v>
+        <v>0.01607736825623101</v>
       </c>
     </row>
     <row r="29">
@@ -2534,19 +2534,19 @@
         <v>3240620</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>3227408</v>
+        <v>3227808</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>3250654</v>
+        <v>3251055</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.9890361781239901</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.9850039895473557</v>
+        <v>0.9851262435512269</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.9920987255980203</v>
+        <v>0.992221141413739</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>3249</v>
@@ -2555,19 +2555,19 @@
         <v>3328508</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>3312884</v>
+        <v>3311477</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>3340823</v>
+        <v>3341836</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.9849998116448432</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.9803760524758519</v>
+        <v>0.9799597468138548</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.9886441804828746</v>
+        <v>0.9889437919654746</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>6426</v>
@@ -2576,19 +2576,19 @@
         <v>6569129</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>6551258</v>
+        <v>6548734</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>6587875</v>
+        <v>6587258</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.9869868676864122</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.9843017520943528</v>
+        <v>0.9839226317437689</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.9898033277453883</v>
+        <v>0.9897107114930551</v>
       </c>
     </row>
     <row r="30">
@@ -2937,19 +2937,19 @@
         <v>2960</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>929</v>
+        <v>939</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>7784</v>
+        <v>7912</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.01030362682589883</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.003235437966668113</v>
+        <v>0.003270614563588589</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.02709974671024757</v>
+        <v>0.02754517811740799</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>3</v>
@@ -2958,19 +2958,19 @@
         <v>2960</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>939</v>
+        <v>949</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>8365</v>
+        <v>8964</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.005085483824548783</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.001613092962333219</v>
+        <v>0.001631439371908134</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.01437277318398364</v>
+        <v>0.01540264023315766</v>
       </c>
     </row>
     <row r="5">
@@ -3000,19 +3000,19 @@
         <v>284285</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>279461</v>
+        <v>279333</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>286316</v>
+        <v>286306</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9896963731741012</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9729002532897524</v>
+        <v>0.972454821882592</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9967645620333319</v>
+        <v>0.9967293854364114</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>535</v>
@@ -3021,19 +3021,19 @@
         <v>579023</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>573618</v>
+        <v>573019</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>581044</v>
+        <v>581034</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9949145161754512</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9856272268160179</v>
+        <v>0.9845973597668422</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9983869070376667</v>
+        <v>0.9983685606280919</v>
       </c>
     </row>
     <row r="6">
@@ -3128,7 +3128,7 @@
         <v>0</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>5562</v>
+        <v>5252</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.002100205354694672</v>
@@ -3137,7 +3137,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.01100273074505794</v>
+        <v>0.01038931190342226</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>11</v>
@@ -3146,19 +3146,19 @@
         <v>13073</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>6698</v>
+        <v>6648</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>22722</v>
+        <v>22973</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.02501328333909763</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.01281487510137381</v>
+        <v>0.01271905918095797</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.04347401479158176</v>
+        <v>0.0439536023291147</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>12</v>
@@ -3167,19 +3167,19 @@
         <v>14135</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>8028</v>
+        <v>7406</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>25135</v>
+        <v>23399</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.0137476059764095</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.007807925856210924</v>
+        <v>0.007202674871237904</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.02444592950570615</v>
+        <v>0.02275737952865622</v>
       </c>
     </row>
     <row r="8">
@@ -3196,7 +3196,7 @@
         <v>504465</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>499965</v>
+        <v>500275</v>
       </c>
       <c r="F8" s="5" t="n">
         <v>505527</v>
@@ -3205,7 +3205,7 @@
         <v>0.9978997946453053</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9889972692549431</v>
+        <v>0.9896106880965778</v>
       </c>
       <c r="I8" s="6" t="n">
         <v>1</v>
@@ -3217,19 +3217,19 @@
         <v>509583</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>499934</v>
+        <v>499683</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>515958</v>
+        <v>516008</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9749867166609024</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9565259852084181</v>
+        <v>0.9560463976708857</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9871851248986261</v>
+        <v>0.9872809408190421</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>939</v>
@@ -3238,19 +3238,19 @@
         <v>1014049</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1003049</v>
+        <v>1004785</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1020156</v>
+        <v>1020778</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9862523940235906</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9755540704942939</v>
+        <v>0.9772426204713441</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9921920741437892</v>
+        <v>0.9927973251287621</v>
       </c>
     </row>
     <row r="9">
@@ -3358,7 +3358,7 @@
         <v>0</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>8783</v>
+        <v>6521</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.006115381649137294</v>
@@ -3367,7 +3367,7 @@
         <v>0</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.0257564445949718</v>
+        <v>0.01912345932291954</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>2</v>
@@ -3379,7 +3379,7 @@
         <v>0</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>6401</v>
+        <v>7318</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.003135730095752542</v>
@@ -3388,7 +3388,7 @@
         <v>0</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.00962498074258124</v>
+        <v>0.01100310513013843</v>
       </c>
     </row>
     <row r="11">
@@ -3418,7 +3418,7 @@
         <v>338935</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>332237</v>
+        <v>334499</v>
       </c>
       <c r="M11" s="5" t="n">
         <v>341020</v>
@@ -3427,7 +3427,7 @@
         <v>0.9938846183508627</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9742435554050286</v>
+        <v>0.9808765406770807</v>
       </c>
       <c r="P11" s="6" t="n">
         <v>1</v>
@@ -3439,7 +3439,7 @@
         <v>662981</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>658665</v>
+        <v>657748</v>
       </c>
       <c r="T11" s="5" t="n">
         <v>665066</v>
@@ -3448,7 +3448,7 @@
         <v>0.9968642699042475</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9903750192574188</v>
+        <v>0.9889968948698616</v>
       </c>
       <c r="W11" s="6" t="n">
         <v>1</v>
@@ -3546,7 +3546,7 @@
         <v>0</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>7361</v>
+        <v>7792</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.005685785873506323</v>
@@ -3555,7 +3555,7 @@
         <v>0</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.01968239333415365</v>
+        <v>0.020834679748848</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>6</v>
@@ -3564,19 +3564,19 @@
         <v>6058</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>2055</v>
+        <v>2026</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>12621</v>
+        <v>12905</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.01557553512505154</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.005284572343222846</v>
+        <v>0.005209821568779229</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.03244864487237548</v>
+        <v>0.03317993854060174</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>8</v>
@@ -3585,19 +3585,19 @@
         <v>8185</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>4000</v>
+        <v>3334</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>16548</v>
+        <v>15529</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.0107276798035834</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.005243564241227943</v>
+        <v>0.004369550938148272</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.02168935580570037</v>
+        <v>0.02035460500119855</v>
       </c>
     </row>
     <row r="14">
@@ -3614,7 +3614,7 @@
         <v>371856</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>366621</v>
+        <v>366190</v>
       </c>
       <c r="F14" s="5" t="n">
         <v>373982</v>
@@ -3623,7 +3623,7 @@
         <v>0.9943142141264937</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9803176066658461</v>
+        <v>0.9791653202511513</v>
       </c>
       <c r="I14" s="6" t="n">
         <v>1</v>
@@ -3635,19 +3635,19 @@
         <v>382893</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>376330</v>
+        <v>376046</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>386896</v>
+        <v>386925</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9844244648749485</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9675513551276245</v>
+        <v>0.9668200614593988</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9947154276567772</v>
+        <v>0.9947901784312208</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>707</v>
@@ -3656,19 +3656,19 @@
         <v>754748</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>746385</v>
+        <v>747404</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>758933</v>
+        <v>759599</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9892723201964166</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9783106441942996</v>
+        <v>0.9796453949988014</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.994756435758772</v>
+        <v>0.9956304490618517</v>
       </c>
     </row>
     <row r="15">
@@ -3760,19 +3760,19 @@
         <v>4483</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>1037</v>
+        <v>1058</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>13200</v>
+        <v>14912</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.02108679316114581</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.004878252750022302</v>
+        <v>0.004976925817771184</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.06208246835930877</v>
+        <v>0.0701334067921467</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>10</v>
@@ -3781,19 +3781,19 @@
         <v>10380</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>5107</v>
+        <v>5146</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>18831</v>
+        <v>19202</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.0472694036221669</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.02325861159054768</v>
+        <v>0.02343476606996281</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.08575483380160245</v>
+        <v>0.08744603586726023</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>13</v>
@@ -3802,19 +3802,19 @@
         <v>14863</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>7403</v>
+        <v>8701</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>24663</v>
+        <v>27075</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.03438930442325028</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.01712812308995528</v>
+        <v>0.02013217931820516</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.05706293908105765</v>
+        <v>0.0626428308807081</v>
       </c>
     </row>
     <row r="17">
@@ -3831,19 +3831,19 @@
         <v>208135</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>199418</v>
+        <v>197706</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>211581</v>
+        <v>211560</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9789132068388542</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9379175316406919</v>
+        <v>0.9298665932078526</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9951217472499777</v>
+        <v>0.9950230741822288</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>202</v>
@@ -3852,19 +3852,19 @@
         <v>209211</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>200760</v>
+        <v>200389</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>214484</v>
+        <v>214445</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9527305963778331</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9142451661983977</v>
+        <v>0.91255396413274</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9767413884094523</v>
+        <v>0.9765652339300372</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>395</v>
@@ -3873,19 +3873,19 @@
         <v>417346</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>407546</v>
+        <v>405134</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>424806</v>
+        <v>423508</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9656106955767497</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9429370609189422</v>
+        <v>0.937357169119292</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9828718769100446</v>
+        <v>0.9798678206817948</v>
       </c>
     </row>
     <row r="18">
@@ -3980,7 +3980,7 @@
         <v>0</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>5356</v>
+        <v>6164</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.003482279206121154</v>
@@ -3989,7 +3989,7 @@
         <v>0</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.01954885817480459</v>
+        <v>0.02249941452415761</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>5</v>
@@ -3998,19 +3998,19 @@
         <v>5263</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>2038</v>
+        <v>2086</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>11605</v>
+        <v>10716</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.01892429902256934</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.007328755128564972</v>
+        <v>0.007502126841308005</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.04172924485864356</v>
+        <v>0.03853417989441656</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>6</v>
@@ -4019,19 +4019,19 @@
         <v>6217</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>2088</v>
+        <v>2139</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>12668</v>
+        <v>12669</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.01126083544606005</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.003782965213000924</v>
+        <v>0.003873814014572088</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.02294565357966434</v>
+        <v>0.02294874295326117</v>
       </c>
     </row>
     <row r="20">
@@ -4048,7 +4048,7 @@
         <v>273027</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>268625</v>
+        <v>267817</v>
       </c>
       <c r="F20" s="5" t="n">
         <v>273981</v>
@@ -4057,7 +4057,7 @@
         <v>0.9965177207938788</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9804511418251948</v>
+        <v>0.9775005854758424</v>
       </c>
       <c r="I20" s="6" t="n">
         <v>1</v>
@@ -4069,19 +4069,19 @@
         <v>272833</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>266491</v>
+        <v>267380</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>276058</v>
+        <v>276010</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.9810757009774307</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.9582707551413568</v>
+        <v>0.9614658201055836</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9926712448714351</v>
+        <v>0.9924978731586921</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>523</v>
@@ -4090,19 +4090,19 @@
         <v>545860</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>539409</v>
+        <v>539408</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>549989</v>
+        <v>549938</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.98873916455394</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9770543464203356</v>
+        <v>0.9770512570467388</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9962170347869991</v>
+        <v>0.9961261859854279</v>
       </c>
     </row>
     <row r="21">
@@ -4194,19 +4194,19 @@
         <v>10942</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>5095</v>
+        <v>5052</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>19803</v>
+        <v>19364</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.01650917201110778</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.007686922506114625</v>
+        <v>0.007621825961101379</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.02987835272894179</v>
+        <v>0.02921618792381027</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>7</v>
@@ -4215,19 +4215,19 @@
         <v>8201</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>3097</v>
+        <v>3189</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>16657</v>
+        <v>16660</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.01181961506845037</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.004463974929279868</v>
+        <v>0.004596745791089582</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.02400638866327094</v>
+        <v>0.02401049171185091</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>17</v>
@@ -4236,19 +4236,19 @@
         <v>19143</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>11187</v>
+        <v>11254</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>30872</v>
+        <v>30881</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.01411070182472992</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.008246095915442135</v>
+        <v>0.008295619006363509</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.02275632062023141</v>
+        <v>0.02276302008693936</v>
       </c>
     </row>
     <row r="23">
@@ -4265,19 +4265,19 @@
         <v>651846</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>642985</v>
+        <v>643424</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>657693</v>
+        <v>657736</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9834908279888922</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9701216472710582</v>
+        <v>0.9707838120761898</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9923130774938854</v>
+        <v>0.9923781740388987</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>629</v>
@@ -4286,19 +4286,19 @@
         <v>685652</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>677196</v>
+        <v>677193</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>690756</v>
+        <v>690664</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.9881803849315496</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.9759936113367277</v>
+        <v>0.9759895082881492</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9955360250707201</v>
+        <v>0.9954032542089105</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>1237</v>
@@ -4307,19 +4307,19 @@
         <v>1337498</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>1325769</v>
+        <v>1325760</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>1345454</v>
+        <v>1345387</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.98588929817527</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9772436793797684</v>
+        <v>0.9772369799130605</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9917539040845579</v>
+        <v>0.9917043809936364</v>
       </c>
     </row>
     <row r="24">
@@ -4411,19 +4411,19 @@
         <v>3089</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>1014</v>
+        <v>1019</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>8249</v>
+        <v>8256</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.003965480041698402</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.001302003171010438</v>
+        <v>0.001307471676518722</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.01058801168635139</v>
+        <v>0.01059722943972014</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>9</v>
@@ -4432,19 +4432,19 @@
         <v>9871</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>4446</v>
+        <v>4424</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>17107</v>
+        <v>17774</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.01200024157253533</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.005405539474164139</v>
+        <v>0.005377757928551163</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.02079710486266172</v>
+        <v>0.02160819404141061</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>12</v>
@@ -4453,19 +4453,19 @@
         <v>12961</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>7408</v>
+        <v>6496</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>21900</v>
+        <v>22839</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.008091917227205448</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.004625103205954132</v>
+        <v>0.004055695802729567</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.01367315918874298</v>
+        <v>0.01425934429254076</v>
       </c>
     </row>
     <row r="26">
@@ -4482,19 +4482,19 @@
         <v>776009</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>770849</v>
+        <v>770842</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>778084</v>
+        <v>778079</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.9960345199583016</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.9894119883136486</v>
+        <v>0.9894027705602799</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9986979968289896</v>
+        <v>0.9986925283234813</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>747</v>
@@ -4503,19 +4503,19 @@
         <v>812707</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>805471</v>
+        <v>804804</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>818132</v>
+        <v>818154</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.9879997584274647</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.9792028951373389</v>
+        <v>0.9783918059585891</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9945944605258359</v>
+        <v>0.9946222420714488</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1461</v>
@@ -4524,19 +4524,19 @@
         <v>1588715</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1579776</v>
+        <v>1578837</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1594268</v>
+        <v>1595180</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.9919080827727945</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.9863268408112572</v>
+        <v>0.9857406557074594</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9953748967940459</v>
+        <v>0.9959443041972704</v>
       </c>
     </row>
     <row r="27">
@@ -4628,19 +4628,19 @@
         <v>22657</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>14295</v>
+        <v>13582</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>35810</v>
+        <v>35006</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.006611802623672383</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.004171528639609179</v>
+        <v>0.003963433618179132</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.01045004622711928</v>
+        <v>0.01021529970257599</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>53</v>
@@ -4649,19 +4649,19 @@
         <v>57892</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>44654</v>
+        <v>44627</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>75001</v>
+        <v>78605</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.01628916155515609</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.01256436411250381</v>
+        <v>0.01255686203642089</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.02110338031769656</v>
+        <v>0.02211740285126669</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>73</v>
@@ -4670,19 +4670,19 @@
         <v>80549</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>61870</v>
+        <v>63574</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>101072</v>
+        <v>101118</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.01153865764904223</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.008862921858948937</v>
+        <v>0.009107068813574579</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.01447867572649579</v>
+        <v>0.01448518908091208</v>
       </c>
     </row>
     <row r="29">
@@ -4699,19 +4699,19 @@
         <v>3404122</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>3390969</v>
+        <v>3391773</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>3412484</v>
+        <v>3413197</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.9933881973763277</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.9895499537728808</v>
+        <v>0.9897847002974248</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.9958284713603909</v>
+        <v>0.9960365663818209</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>3242</v>
@@ -4720,19 +4720,19 @@
         <v>3496098</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>3478989</v>
+        <v>3475385</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>3509336</v>
+        <v>3509363</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.9837108384448439</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.9788966196823036</v>
+        <v>0.9778825971487334</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.9874356358874963</v>
+        <v>0.9874431379635791</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>6431</v>
@@ -4741,19 +4741,19 @@
         <v>6900220</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>6879697</v>
+        <v>6879651</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>6918899</v>
+        <v>6917195</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.9884613423509577</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.9855213242735041</v>
+        <v>0.9855148109190879</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.991137078141051</v>
+        <v>0.9908929311864254</v>
       </c>
     </row>
     <row r="30">
@@ -5089,19 +5089,19 @@
         <v>2877</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>781</v>
+        <v>796</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>8362</v>
+        <v>8193</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.009794173806955003</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.002658296501307439</v>
+        <v>0.00270884687231812</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.0284670185260813</v>
+        <v>0.02789133216271106</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>5</v>
@@ -5110,19 +5110,19 @@
         <v>5397</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>2028</v>
+        <v>1944</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>12045</v>
+        <v>11969</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.01869225660655425</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.007024768749114233</v>
+        <v>0.006731849280852287</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.04172130992913824</v>
+        <v>0.04145845789331228</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>8</v>
@@ -5131,7 +5131,7 @@
         <v>8274</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>3586</v>
+        <v>3827</v>
       </c>
       <c r="T4" s="5" t="n">
         <v>15749</v>
@@ -5140,10 +5140,10 @@
         <v>0.01420458062039869</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.006157308015651705</v>
+        <v>0.00657104477281818</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.02703894790825876</v>
+        <v>0.02703807974566438</v>
       </c>
     </row>
     <row r="5">
@@ -5160,19 +5160,19 @@
         <v>290884</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>285399</v>
+        <v>285568</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>292980</v>
+        <v>292965</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.990205826193045</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9715329814739188</v>
+        <v>0.9721086678372887</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9973417034986926</v>
+        <v>0.9972911531276818</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>272</v>
@@ -5181,19 +5181,19 @@
         <v>283306</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>276658</v>
+        <v>276734</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>286675</v>
+        <v>286759</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9813077433934457</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9582786900708622</v>
+        <v>0.9585415421066878</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9929752312508858</v>
+        <v>0.9932681507191478</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>535</v>
@@ -5205,16 +5205,16 @@
         <v>566715</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>578878</v>
+        <v>578637</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9857954193796014</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9729610520917417</v>
+        <v>0.9729619202543353</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9938426919843484</v>
+        <v>0.9934289552271814</v>
       </c>
     </row>
     <row r="6">
@@ -5306,19 +5306,19 @@
         <v>2612</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>859</v>
+        <v>856</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>7846</v>
+        <v>7676</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.005196973951648195</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.001710003107407856</v>
+        <v>0.00170362780930558</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.01561095039752119</v>
+        <v>0.01527301419193259</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>4</v>
@@ -5327,19 +5327,19 @@
         <v>4737</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>1163</v>
+        <v>1160</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>11729</v>
+        <v>12143</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.009055239587910146</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.002222489489271619</v>
+        <v>0.002218382658202848</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.02242256357553471</v>
+        <v>0.02321515777034829</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>7</v>
@@ -5348,19 +5348,19 @@
         <v>7349</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>3126</v>
+        <v>2900</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>15121</v>
+        <v>15202</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.007164680870491008</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.003047559962831508</v>
+        <v>0.002827704833215285</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.01474237132984812</v>
+        <v>0.01482133322135237</v>
       </c>
     </row>
     <row r="8">
@@ -5377,19 +5377,19 @@
         <v>499963</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>494729</v>
+        <v>494899</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>501716</v>
+        <v>501719</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9948030260483518</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9843890496024789</v>
+        <v>0.9847269858080642</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9982899968925921</v>
+        <v>0.9982963721906943</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>480</v>
@@ -5398,19 +5398,19 @@
         <v>518347</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>511355</v>
+        <v>510941</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>521921</v>
+        <v>521924</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9909447604120899</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.977577436424465</v>
+        <v>0.9767848422296517</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9977775105107284</v>
+        <v>0.9977816173417972</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>952</v>
@@ -5419,19 +5419,19 @@
         <v>1018310</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1010538</v>
+        <v>1010457</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1022533</v>
+        <v>1022759</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.992835319129509</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9852576286701515</v>
+        <v>0.9851786667786475</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9969524400371684</v>
+        <v>0.9971722951667847</v>
       </c>
     </row>
     <row r="9">
@@ -5695,7 +5695,7 @@
         <v>0</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>5751</v>
+        <v>5691</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.002620898581695861</v>
@@ -5704,7 +5704,7 @@
         <v>0</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.01554433683409171</v>
+        <v>0.01538219510338669</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>13</v>
@@ -5713,19 +5713,19 @@
         <v>15172</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>8684</v>
+        <v>8314</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>25411</v>
+        <v>24492</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.03917675647912344</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.02242386954682687</v>
+        <v>0.0214670919652598</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.06561448682433092</v>
+        <v>0.06323996202970432</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>14</v>
@@ -5734,19 +5734,19 @@
         <v>16142</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>8926</v>
+        <v>9505</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>28024</v>
+        <v>26800</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.02131686220155195</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.01178737446569305</v>
+        <v>0.01255216846997732</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.03700809403789906</v>
+        <v>0.03539110090589937</v>
       </c>
     </row>
     <row r="14">
@@ -5763,7 +5763,7 @@
         <v>368994</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>364213</v>
+        <v>364273</v>
       </c>
       <c r="F14" s="5" t="n">
         <v>369964</v>
@@ -5772,7 +5772,7 @@
         <v>0.9973791014183041</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.984455663165909</v>
+        <v>0.9846178048966149</v>
       </c>
       <c r="I14" s="6" t="n">
         <v>1</v>
@@ -5784,19 +5784,19 @@
         <v>372111</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>361872</v>
+        <v>362791</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>378599</v>
+        <v>378969</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9608232435208766</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9343855131756695</v>
+        <v>0.9367600379702957</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9775761304531732</v>
+        <v>0.9785329080347401</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>698</v>
@@ -5805,19 +5805,19 @@
         <v>741105</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>729223</v>
+        <v>730447</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>748321</v>
+        <v>747742</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9786831377984481</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.962991905962101</v>
+        <v>0.9646088990941002</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.988212625534307</v>
+        <v>0.9874478315300217</v>
       </c>
     </row>
     <row r="15">
@@ -5912,7 +5912,7 @@
         <v>0</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>4744</v>
+        <v>4781</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.004481639600920516</v>
@@ -5921,7 +5921,7 @@
         <v>0</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.02245841211390973</v>
+        <v>0.02263488751525069</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>0</v>
@@ -5946,7 +5946,7 @@
         <v>0</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>5220</v>
+        <v>4806</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.002202416879577378</v>
@@ -5955,7 +5955,7 @@
         <v>0</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.01214383007390312</v>
+        <v>0.01118087279592713</v>
       </c>
     </row>
     <row r="17">
@@ -5972,7 +5972,7 @@
         <v>210274</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>206477</v>
+        <v>206440</v>
       </c>
       <c r="F17" s="5" t="n">
         <v>211221</v>
@@ -5981,7 +5981,7 @@
         <v>0.9955183603990795</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9775415878860902</v>
+        <v>0.9773651124847493</v>
       </c>
       <c r="I17" s="6" t="n">
         <v>1</v>
@@ -6006,7 +6006,7 @@
         <v>428861</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>424588</v>
+        <v>425002</v>
       </c>
       <c r="T17" s="5" t="n">
         <v>429808</v>
@@ -6015,7 +6015,7 @@
         <v>0.9977975831204227</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.987856169926096</v>
+        <v>0.9888191272040729</v>
       </c>
       <c r="W17" s="6" t="n">
         <v>1</v>
@@ -6110,19 +6110,19 @@
         <v>4239</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>1609</v>
+        <v>1606</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>9480</v>
+        <v>9143</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.01610983204471583</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.006114312540637331</v>
+        <v>0.006103428768397268</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.03602737279741378</v>
+        <v>0.03474747538094357</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>3</v>
@@ -6131,19 +6131,19 @@
         <v>3479</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>956</v>
+        <v>954</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>8890</v>
+        <v>9719</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.01273653502569698</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.003500483858363278</v>
+        <v>0.003493127909805273</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.03254960544011688</v>
+        <v>0.03558717172845461</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>8</v>
@@ -6152,19 +6152,19 @@
         <v>7717</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>3189</v>
+        <v>3600</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>14612</v>
+        <v>14842</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.01439175533721415</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.005946566066389849</v>
+        <v>0.0067136080035423</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.027249335709254</v>
+        <v>0.0276772147583384</v>
       </c>
     </row>
     <row r="20">
@@ -6181,19 +6181,19 @@
         <v>258884</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>253643</v>
+        <v>253980</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>261514</v>
+        <v>261517</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9838901679552842</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9639726272025861</v>
+        <v>0.9652525246190568</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9938856874593627</v>
+        <v>0.9938965712316028</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>260</v>
@@ -6202,19 +6202,19 @@
         <v>269636</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>264225</v>
+        <v>263396</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>272159</v>
+        <v>272161</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.9872634649743031</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.9674503945598832</v>
+        <v>0.9644128282715454</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9964995161416367</v>
+        <v>0.9965068720901947</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>514</v>
@@ -6223,19 +6223,19 @@
         <v>528521</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>521626</v>
+        <v>521396</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>533049</v>
+        <v>532638</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9856082446627858</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9727506642907459</v>
+        <v>0.9723227852416605</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.99405343393361</v>
+        <v>0.993286391996457</v>
       </c>
     </row>
     <row r="21">
@@ -6327,19 +6327,19 @@
         <v>3612</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>906</v>
+        <v>910</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>9132</v>
+        <v>8972</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.005501032414917863</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.001380317822000031</v>
+        <v>0.001386034157188516</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.01390838335644594</v>
+        <v>0.01366551901171399</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>14</v>
@@ -6348,19 +6348,19 @@
         <v>16478</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>9154</v>
+        <v>9435</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>27704</v>
+        <v>26549</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.02383717229035906</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.01324162732133751</v>
+        <v>0.01364893335435377</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.04007523646824972</v>
+        <v>0.03840544956741496</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>18</v>
@@ -6369,19 +6369,19 @@
         <v>20090</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>11547</v>
+        <v>12288</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>31164</v>
+        <v>30637</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.01490537614909136</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.008567232273586127</v>
+        <v>0.009117037322433245</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.02312158236805603</v>
+        <v>0.0227299643378777</v>
       </c>
     </row>
     <row r="23">
@@ -6398,19 +6398,19 @@
         <v>652946</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>647426</v>
+        <v>647586</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>655652</v>
+        <v>655648</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9944989675850822</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.986091616643554</v>
+        <v>0.986334480988286</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.998619682178</v>
+        <v>0.9986139658428115</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>632</v>
@@ -6419,19 +6419,19 @@
         <v>674816</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>663590</v>
+        <v>664745</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>682140</v>
+        <v>681859</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.9761628277096409</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.9599247635317503</v>
+        <v>0.9615945504325851</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9867583726786624</v>
+        <v>0.9863510666456463</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>1208</v>
@@ -6440,19 +6440,19 @@
         <v>1327762</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>1316688</v>
+        <v>1317215</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>1336305</v>
+        <v>1335564</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.9850946238509086</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9768784176319441</v>
+        <v>0.9772700356621222</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.991432767726414</v>
+        <v>0.9908829626775667</v>
       </c>
     </row>
     <row r="24">
@@ -6547,7 +6547,7 @@
         <v>0</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>9247</v>
+        <v>8152</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.002902875898719117</v>
@@ -6556,7 +6556,7 @@
         <v>0</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.01187706645727043</v>
+        <v>0.01047058995139415</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>5</v>
@@ -6565,19 +6565,19 @@
         <v>6007</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>2298</v>
+        <v>2046</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>13673</v>
+        <v>13602</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.007270754378277587</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.002781018662842724</v>
+        <v>0.002475980043633842</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.01655022554299786</v>
+        <v>0.01646433431549951</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>7</v>
@@ -6586,19 +6586,19 @@
         <v>8267</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>3555</v>
+        <v>3232</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>15816</v>
+        <v>15184</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.005151573247998553</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.002215047341276763</v>
+        <v>0.002013881389182185</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.009855517231782287</v>
+        <v>0.009461683300695349</v>
       </c>
     </row>
     <row r="26">
@@ -6615,7 +6615,7 @@
         <v>776323</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>769336</v>
+        <v>770431</v>
       </c>
       <c r="F26" s="5" t="n">
         <v>778583</v>
@@ -6624,7 +6624,7 @@
         <v>0.9970971241012809</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.9881229335427298</v>
+        <v>0.9895294100486058</v>
       </c>
       <c r="I26" s="6" t="n">
         <v>1</v>
@@ -6636,19 +6636,19 @@
         <v>820160</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>812494</v>
+        <v>812565</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>823869</v>
+        <v>824121</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.9927292456217224</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.9834497744570027</v>
+        <v>0.9835356656845005</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9972189813371574</v>
+        <v>0.9975240199563662</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1498</v>
@@ -6657,19 +6657,19 @@
         <v>1596483</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1588934</v>
+        <v>1589566</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1601195</v>
+        <v>1601518</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.9948484267520015</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.9901444827682178</v>
+        <v>0.9905383166993045</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9977849526587232</v>
+        <v>0.9979861186108178</v>
       </c>
     </row>
     <row r="27">
@@ -6761,19 +6761,19 @@
         <v>17516</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>11249</v>
+        <v>10491</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>27674</v>
+        <v>27523</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.005160344107166851</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.003313949028394946</v>
+        <v>0.003090804098487121</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.008152979362129073</v>
+        <v>0.008108381856723079</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>44</v>
@@ -6782,19 +6782,19 @@
         <v>51270</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>37237</v>
+        <v>38468</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>68316</v>
+        <v>69429</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.01446436339241521</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.01050554548161705</v>
+        <v>0.01085280345606824</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.01927348825151559</v>
+        <v>0.01958768386774908</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>63</v>
@@ -6803,19 +6803,19 @@
         <v>68786</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>53790</v>
+        <v>53208</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>88645</v>
+        <v>86376</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.009913046050064564</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.007751999497048452</v>
+        <v>0.007668092941202856</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.0127750601052864</v>
+        <v>0.01244811168646032</v>
       </c>
     </row>
     <row r="29">
@@ -6832,19 +6832,19 @@
         <v>3376834</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>3366676</v>
+        <v>3366827</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>3383101</v>
+        <v>3383859</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.9948396558928332</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.9918470206378708</v>
+        <v>0.9918916181432769</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.9966860509716048</v>
+        <v>0.9969091959015128</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>3294</v>
@@ -6853,19 +6853,19 @@
         <v>3493272</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>3476226</v>
+        <v>3475113</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>3507305</v>
+        <v>3506074</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.9855356366075848</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.9807265117484849</v>
+        <v>0.9804123161322508</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.9894944545183831</v>
+        <v>0.9891471965439317</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>6506</v>
@@ -6874,19 +6874,19 @@
         <v>6870106</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>6850247</v>
+        <v>6852516</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>6885102</v>
+        <v>6885684</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.9900869539499354</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.9872249398947135</v>
+        <v>0.9875518883135397</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.9922480005029515</v>
+        <v>0.9923319070587971</v>
       </c>
     </row>
     <row r="30">
